--- a/API.xlsx
+++ b/API.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Tasks\00_SelfLearning\12_WeixinHoney\code\000_backup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Tasks\00_SelfLearning\12_WeixinHoney\code\Backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278ABC3A-B8E9-4F33-A028-452A2F585C9A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E07828-E113-49F9-BC20-F7DEA75816F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1202,54 +1202,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1544,30 +1538,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1">
       <c r="A4" s="4" t="s">
@@ -1593,10 +1587,10 @@
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1614,8 +1608,8 @@
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1633,8 +1627,8 @@
         <f t="shared" ref="A7:A56" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1652,8 +1646,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1671,10 +1665,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>168</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1692,8 +1686,8 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1711,8 +1705,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1733,7 +1727,7 @@
       <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1751,13 +1745,13 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1772,8 +1766,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1791,8 +1785,8 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="6" t="s">
         <v>174</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1810,8 +1804,8 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1829,8 +1823,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -1848,13 +1842,13 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1869,8 +1863,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1888,13 +1882,13 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1909,8 +1903,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1928,8 +1922,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1947,11 +1941,11 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -1966,11 +1960,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -1988,7 +1982,7 @@
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2006,10 +2000,10 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2027,8 +2021,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="6" t="s">
         <v>186</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2046,8 +2040,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="6" t="s">
         <v>187</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2065,8 +2059,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2084,8 +2078,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2103,10 +2097,10 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2124,8 +2118,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
         <v>191</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2143,8 +2137,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="6" t="s">
         <v>192</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2165,7 +2159,7 @@
       <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="6" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2183,10 +2177,10 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="6" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="1"/>
@@ -2202,8 +2196,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -2221,8 +2215,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="6" t="s">
         <v>196</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -2240,10 +2234,10 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="6" t="s">
         <v>197</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -2261,10 +2255,10 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="6" t="s">
         <v>198</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -2282,10 +2276,10 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D40" s="1"/>
@@ -2301,11 +2295,11 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -2320,11 +2314,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2339,17 +2333,17 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2358,19 +2352,19 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2379,17 +2373,17 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="6" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2398,17 +2392,17 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13" t="s">
+      <c r="D46" s="6"/>
+      <c r="E46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2417,19 +2411,19 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2438,17 +2432,17 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2457,19 +2451,19 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2478,17 +2472,17 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="12" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="6" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2497,17 +2491,17 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="6" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2516,19 +2510,19 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="6" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2537,17 +2531,17 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2556,17 +2550,17 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2575,17 +2569,17 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="12" t="s">
+      <c r="E55" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="6" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2594,22 +2588,28 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="E56" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="6" t="s">
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B47:B48"/>
@@ -2618,12 +2618,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="B40:B43"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
